--- a/data/trans_orig/P55S_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P55S_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>2730</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6889</v>
+        <v>6945</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06533510149234097</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01897588869126775</v>
+        <v>0.01922157266987225</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1648657090330786</v>
+        <v>0.1662000418053011</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -765,19 +765,19 @@
         <v>15785</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10164</v>
+        <v>9992</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23210</v>
+        <v>23090</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2333027409138914</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1502122356098849</v>
+        <v>0.147677056157869</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3430278094938815</v>
+        <v>0.3412662201535785</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -786,19 +786,19 @@
         <v>18515</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12083</v>
+        <v>12003</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27303</v>
+        <v>27101</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1691751128948587</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1104024743361273</v>
+        <v>0.109671606660053</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2494658319987489</v>
+        <v>0.2476244658327799</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3912</v>
+        <v>4284</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01999935556370181</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09362621936671059</v>
+        <v>0.1025334556832552</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6530</v>
+        <v>5633</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02754518417077651</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09650618234995209</v>
+        <v>0.0832535876061183</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -857,19 +857,19 @@
         <v>2699</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7215</v>
+        <v>7239</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02466429537769523</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00753429796291185</v>
+        <v>0.007546250855740513</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06592474791571883</v>
+        <v>0.06614440729999674</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>34680</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28672</v>
+        <v>29034</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38982</v>
+        <v>39057</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8299556725898953</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6861754644614887</v>
+        <v>0.694843744553126</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.93292676578802</v>
+        <v>0.9347219464053099</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>47</v>
@@ -907,19 +907,19 @@
         <v>43751</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>35985</v>
+        <v>36236</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>51173</v>
+        <v>51309</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6466244329042445</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5318429324888216</v>
+        <v>0.5355543544726638</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7563170738026948</v>
+        <v>0.7583309162104369</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>82</v>
@@ -928,19 +928,19 @@
         <v>78430</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>68305</v>
+        <v>69339</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>87058</v>
+        <v>86833</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7166176624532046</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6241022533517765</v>
+        <v>0.6335495450085743</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7954499464398092</v>
+        <v>0.7933978318853591</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>3540</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9695</v>
+        <v>9318</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08470987035406188</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02006202392741905</v>
+        <v>0.02002843564685087</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2320219502190039</v>
+        <v>0.2230086340636893</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -978,19 +978,19 @@
         <v>6261</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2716</v>
+        <v>2753</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11711</v>
+        <v>12395</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09252764201108755</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04013465034099827</v>
+        <v>0.04068920590774831</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.173081518104328</v>
+        <v>0.1831890490167363</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -999,19 +999,19 @@
         <v>9800</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5315</v>
+        <v>4627</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17339</v>
+        <v>16751</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08954292927424144</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04856367457535762</v>
+        <v>0.04228111874348986</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1584225778986807</v>
+        <v>0.1530538661078697</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>12280</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7120</v>
+        <v>7148</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20125</v>
+        <v>19438</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1448183711319649</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08396321429673863</v>
+        <v>0.08430173649783704</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2373413233681817</v>
+        <v>0.2292391563264558</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>28</v>
@@ -1124,19 +1124,19 @@
         <v>32433</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22209</v>
+        <v>22566</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>43839</v>
+        <v>43984</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1986574304927161</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.136035655518563</v>
+        <v>0.1382185064418772</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2685208980311871</v>
+        <v>0.2694048183046688</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>41</v>
@@ -1145,19 +1145,19 @@
         <v>44713</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>33205</v>
+        <v>32057</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>57165</v>
+        <v>57578</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1802534273228496</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1338622096433875</v>
+        <v>0.1292338599549231</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2304530516039205</v>
+        <v>0.2321156027438226</v>
       </c>
     </row>
     <row r="10">
@@ -1187,19 +1187,19 @@
         <v>8899</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4413</v>
+        <v>4402</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16971</v>
+        <v>17818</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05450814983005195</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02702923791131537</v>
+        <v>0.02696123576739881</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1039473771010426</v>
+        <v>0.1091366992396283</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1208,19 +1208,19 @@
         <v>8899</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3367</v>
+        <v>4381</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16591</v>
+        <v>16646</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03587542901050608</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01357454159773177</v>
+        <v>0.01766077506198326</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06688300988127643</v>
+        <v>0.06710719573215325</v>
       </c>
     </row>
     <row r="11">
@@ -1237,19 +1237,19 @@
         <v>69619</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>61579</v>
+        <v>62271</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>75381</v>
+        <v>75594</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8210424852660571</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7262139304654108</v>
+        <v>0.734384814154154</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8889885343027204</v>
+        <v>0.8915052580930539</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>98</v>
@@ -1258,19 +1258,19 @@
         <v>112978</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>100037</v>
+        <v>99710</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>124838</v>
+        <v>125468</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6920032702385915</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6127415427419081</v>
+        <v>0.6107348959952368</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7646510278168455</v>
+        <v>0.7685046559469073</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>173</v>
@@ -1279,19 +1279,19 @@
         <v>182597</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>167801</v>
+        <v>167756</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>195996</v>
+        <v>196142</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7361132184917705</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6764654816233927</v>
+        <v>0.6762821337911736</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7901273515584842</v>
+        <v>0.7907158571838246</v>
       </c>
     </row>
     <row r="12">
@@ -1308,19 +1308,19 @@
         <v>2895</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7872</v>
+        <v>7904</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.034139143601978</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01071914879391695</v>
+        <v>0.01075151795273983</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09283093209158508</v>
+        <v>0.0932120908425752</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1329,19 +1329,19 @@
         <v>8952</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3530</v>
+        <v>4196</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16930</v>
+        <v>16468</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05483114943864043</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02161960707313736</v>
+        <v>0.0256986630407673</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.103699024444818</v>
+        <v>0.1008700775545765</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -1350,19 +1350,19 @@
         <v>11847</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6042</v>
+        <v>6521</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>20962</v>
+        <v>20773</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04775792517487391</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02435598658857124</v>
+        <v>0.02628924822520413</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08450533970171935</v>
+        <v>0.08374192140468033</v>
       </c>
     </row>
     <row r="13">
@@ -1454,19 +1454,19 @@
         <v>15010</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8643</v>
+        <v>8993</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23967</v>
+        <v>22591</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1185802803852534</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0682851792858145</v>
+        <v>0.07104578713310664</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1893449281325758</v>
+        <v>0.178478730276999</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>45</v>
@@ -1475,19 +1475,19 @@
         <v>48218</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36914</v>
+        <v>36422</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>63679</v>
+        <v>61772</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2088085470507513</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1598563786335921</v>
+        <v>0.1577228088778697</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2757598114391963</v>
+        <v>0.2675023860821519</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>61</v>
@@ -1496,19 +1496,19 @@
         <v>63228</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>49949</v>
+        <v>50924</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>79290</v>
+        <v>78033</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.176861917608825</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.139717807864013</v>
+        <v>0.142445197230937</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2217901046181327</v>
+        <v>0.2182727943562024</v>
       </c>
     </row>
     <row r="15">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3820</v>
+        <v>4266</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.006601954204140626</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03017721710530534</v>
+        <v>0.03369926276941276</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>10</v>
@@ -1546,19 +1546,19 @@
         <v>10763</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>5330</v>
+        <v>5440</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>18918</v>
+        <v>19190</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04660796929103392</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02308064388712291</v>
+        <v>0.02355958252150759</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08192300894079724</v>
+        <v>0.08310123515786429</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>11</v>
@@ -1567,19 +1567,19 @@
         <v>11598</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>6350</v>
+        <v>5299</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>20286</v>
+        <v>19388</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03244325809063792</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01776248834287934</v>
+        <v>0.01482331737080797</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05674487036924866</v>
+        <v>0.05423232965068588</v>
       </c>
     </row>
     <row r="16">
@@ -1596,19 +1596,19 @@
         <v>104298</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>94745</v>
+        <v>95517</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>111981</v>
+        <v>112116</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8239848027991133</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7485122786821964</v>
+        <v>0.7546099108305555</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8846786918138952</v>
+        <v>0.8857489583751416</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>145</v>
@@ -1617,19 +1617,19 @@
         <v>156728</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>141750</v>
+        <v>143405</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>170646</v>
+        <v>171563</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.678707217715202</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6138456184415008</v>
+        <v>0.6210085959529396</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7389759762282542</v>
+        <v>0.7429484714321775</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>255</v>
@@ -1638,19 +1638,19 @@
         <v>261028</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>243453</v>
+        <v>243818</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>275794</v>
+        <v>276047</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7301448585833309</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6809862609422086</v>
+        <v>0.6820071462578373</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7714487303605652</v>
+        <v>0.7721585582126316</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>6434</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2520</v>
+        <v>2680</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13301</v>
+        <v>14318</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05083296261149261</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0199091249666376</v>
+        <v>0.0211734986049134</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1050816514254934</v>
+        <v>0.1131137808070915</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -1688,19 +1688,19 @@
         <v>15212</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9201</v>
+        <v>8471</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24972</v>
+        <v>23526</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06587626594301266</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03984417408726114</v>
+        <v>0.03668331944547178</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1081398890618986</v>
+        <v>0.1018783828858286</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -1709,19 +1709,19 @@
         <v>21647</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13231</v>
+        <v>14130</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32167</v>
+        <v>32718</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06054996571720619</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0370109929040582</v>
+        <v>0.03952450256551555</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0899787508579853</v>
+        <v>0.09151907305314388</v>
       </c>
     </row>
     <row r="18">
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6774</v>
+        <v>6828</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04615880461441258</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1490337819723768</v>
+        <v>0.1502121623356572</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -2072,19 +2072,19 @@
         <v>6679</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2726</v>
+        <v>2922</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14002</v>
+        <v>13394</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09579818263680137</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03910629955923828</v>
+        <v>0.04191814541820186</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2008437608271668</v>
+        <v>0.1921174650953459</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -2093,19 +2093,19 @@
         <v>8777</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4122</v>
+        <v>4170</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16548</v>
+        <v>16679</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07620679209226267</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03578922292618023</v>
+        <v>0.03620653087661989</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1436771028013663</v>
+        <v>0.1448193690134527</v>
       </c>
     </row>
     <row r="5">
@@ -2122,19 +2122,19 @@
         <v>3115</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>942</v>
+        <v>960</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8432</v>
+        <v>7025</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06852960949937063</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02072529228285103</v>
+        <v>0.02112187496297179</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1855062064964921</v>
+        <v>0.1545506523155645</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -2143,19 +2143,19 @@
         <v>5890</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2046</v>
+        <v>2804</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11713</v>
+        <v>12451</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0844889465362114</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0293465467092097</v>
+        <v>0.04021622707934085</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.168005344599737</v>
+        <v>0.1785995525113926</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -2164,19 +2164,19 @@
         <v>9005</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3988</v>
+        <v>4068</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15260</v>
+        <v>15900</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07819020515029702</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03462863193966417</v>
+        <v>0.03532238886427064</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1324983930368318</v>
+        <v>0.1380526336920472</v>
       </c>
     </row>
     <row r="6">
@@ -2193,19 +2193,19 @@
         <v>37267</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30998</v>
+        <v>31372</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>41541</v>
+        <v>41582</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8198430188014545</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6819421737250126</v>
+        <v>0.6901512533112507</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9138751227340416</v>
+        <v>0.914780122781129</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>52</v>
@@ -2214,19 +2214,19 @@
         <v>54206</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>46075</v>
+        <v>45497</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>60592</v>
+        <v>60445</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7775170802211</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6608863296724161</v>
+        <v>0.6525968676798007</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8691184631839514</v>
+        <v>0.8670041403596758</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>86</v>
@@ -2235,19 +2235,19 @@
         <v>91473</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>82565</v>
+        <v>81333</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>99148</v>
+        <v>99212</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7942220436176575</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7168803675738138</v>
+        <v>0.7061819784120766</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8608599531327872</v>
+        <v>0.8614156351576251</v>
       </c>
     </row>
     <row r="7">
@@ -2264,19 +2264,19 @@
         <v>2976</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>937</v>
+        <v>951</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7591</v>
+        <v>7866</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06546856708476233</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02061120012867059</v>
+        <v>0.02091523491563739</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1669892846657637</v>
+        <v>0.1730497528252925</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2285,19 +2285,19 @@
         <v>2942</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7806</v>
+        <v>8328</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04219579060588726</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01346440670836607</v>
+        <v>0.01340117452028747</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1119616373344859</v>
+        <v>0.1194513725066621</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -2306,19 +2306,19 @@
         <v>5918</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1994</v>
+        <v>2853</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12013</v>
+        <v>12663</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05138095913978289</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01731024479020744</v>
+        <v>0.0247725816858602</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1043011152926844</v>
+        <v>0.1099451218343894</v>
       </c>
     </row>
     <row r="8">
@@ -2410,19 +2410,19 @@
         <v>16943</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10235</v>
+        <v>10373</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>25874</v>
+        <v>25692</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1682303389707107</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1016313025825619</v>
+        <v>0.1029972524785407</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2569067745415564</v>
+        <v>0.2551010144326112</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>31</v>
@@ -2431,19 +2431,19 @@
         <v>36302</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>25904</v>
+        <v>25810</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>49315</v>
+        <v>49358</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1730214370766086</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1234607302749214</v>
+        <v>0.1230138534870981</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2350438980993149</v>
+        <v>0.2352479926085403</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>47</v>
@@ -2452,19 +2452,19 @@
         <v>53245</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>40551</v>
+        <v>40458</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>67622</v>
+        <v>69970</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.171467549752798</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1305881001137683</v>
+        <v>0.1302895616377867</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2177665831132633</v>
+        <v>0.2253294561361285</v>
       </c>
     </row>
     <row r="10">
@@ -2481,19 +2481,19 @@
         <v>9728</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5069</v>
+        <v>4344</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16825</v>
+        <v>17271</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09659635248164579</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05032679941920933</v>
+        <v>0.04313286909956651</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1670626897168642</v>
+        <v>0.1714842665797013</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -2502,19 +2502,19 @@
         <v>46904</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35279</v>
+        <v>34679</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60390</v>
+        <v>59758</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2235511648558587</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1681453285211463</v>
+        <v>0.165287380940102</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2878253583539039</v>
+        <v>0.2848167144015251</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -2523,19 +2523,19 @@
         <v>56632</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44386</v>
+        <v>44278</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71954</v>
+        <v>71416</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1823761629492611</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1429394951726668</v>
+        <v>0.1425893467275841</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2317182304447478</v>
+        <v>0.229983906326622</v>
       </c>
     </row>
     <row r="11">
@@ -2552,19 +2552,19 @@
         <v>70725</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60573</v>
+        <v>60956</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>79575</v>
+        <v>80651</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7022495984803285</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6014476640782928</v>
+        <v>0.6052468636464069</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7901252042100124</v>
+        <v>0.8008091335404333</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>112</v>
@@ -2573,19 +2573,19 @@
         <v>123187</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>108070</v>
+        <v>108171</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>137882</v>
+        <v>139180</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5871289171201508</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5150782475612842</v>
+        <v>0.5155598555460974</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6571655878614666</v>
+        <v>0.6633503230700456</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>172</v>
@@ -2594,19 +2594,19 @@
         <v>193912</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>175004</v>
+        <v>175426</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>211678</v>
+        <v>210770</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6244657788416442</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5635738652840331</v>
+        <v>0.5649325835443044</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6816766380040263</v>
+        <v>0.6787525000544585</v>
       </c>
     </row>
     <row r="12">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11781</v>
+        <v>12214</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03292371006731497</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1169816990414363</v>
+        <v>0.121278693744588</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -2644,19 +2644,19 @@
         <v>3420</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1060</v>
+        <v>1070</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9080</v>
+        <v>10293</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01629848094738188</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.005053818722841589</v>
+        <v>0.005101836385013474</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0432756729846193</v>
+        <v>0.04905664048139181</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -2665,19 +2665,19 @@
         <v>6735</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2264</v>
+        <v>2254</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15528</v>
+        <v>16668</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02169050845629663</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007290517089925312</v>
+        <v>0.007258638465127683</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05000588192602093</v>
+        <v>0.0536771627643538</v>
       </c>
     </row>
     <row r="13">
@@ -2769,19 +2769,19 @@
         <v>19041</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11636</v>
+        <v>11923</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28717</v>
+        <v>29821</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1302681146703799</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07960580227825394</v>
+        <v>0.08156842930421079</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1964637256696914</v>
+        <v>0.2040195781835142</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>37</v>
@@ -2790,19 +2790,19 @@
         <v>42981</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30607</v>
+        <v>30850</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>58306</v>
+        <v>55298</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1537613461252115</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1094931398420656</v>
+        <v>0.1103621389411912</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2085856856036618</v>
+        <v>0.1978250819348606</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>55</v>
@@ -2811,19 +2811,19 @@
         <v>62022</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>47391</v>
+        <v>46865</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>78773</v>
+        <v>77622</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1456947041609223</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1113255794874831</v>
+        <v>0.1100897838692191</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1850432910605568</v>
+        <v>0.1823401094597826</v>
       </c>
     </row>
     <row r="15">
@@ -2840,19 +2840,19 @@
         <v>12843</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7215</v>
+        <v>7324</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>21744</v>
+        <v>21118</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0878680605166821</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04936384719114745</v>
+        <v>0.05010644676677192</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.148761865474298</v>
+        <v>0.1444776600768732</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>49</v>
@@ -2861,19 +2861,19 @@
         <v>52794</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>41490</v>
+        <v>40564</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>67922</v>
+        <v>67903</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1888679467997338</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1484288774840873</v>
+        <v>0.1451140758571703</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.242984893356198</v>
+        <v>0.2429178778633886</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>61</v>
@@ -2882,19 +2882,19 @@
         <v>65638</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>51025</v>
+        <v>52022</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>81717</v>
+        <v>81677</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1541885999995408</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1198611443916147</v>
+        <v>0.1222047987103007</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.19195949168977</v>
+        <v>0.19186677908096</v>
       </c>
     </row>
     <row r="16">
@@ -2911,19 +2911,19 @@
         <v>107992</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>96382</v>
+        <v>94950</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>118824</v>
+        <v>117915</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7388192035239088</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6593940802760302</v>
+        <v>0.6495920634905427</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8129281302701264</v>
+        <v>0.8067083965473405</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>164</v>
@@ -2932,19 +2932,19 @@
         <v>177393</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>159585</v>
+        <v>161679</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>194142</v>
+        <v>194899</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.634613232097473</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5709063864739639</v>
+        <v>0.5783970963712667</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6945315822375143</v>
+        <v>0.697237628759714</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>258</v>
@@ -2953,19 +2953,19 @@
         <v>285385</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>266694</v>
+        <v>264053</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>304904</v>
+        <v>302962</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6703934211129411</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6264863930075615</v>
+        <v>0.6202832567841648</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7162438735309522</v>
+        <v>0.7116835666580251</v>
       </c>
     </row>
     <row r="17">
@@ -2982,19 +2982,19 @@
         <v>6292</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14925</v>
+        <v>15764</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04304462128902921</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01377389946623971</v>
+        <v>0.01358335476576408</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1021107499601447</v>
+        <v>0.1078470775490848</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -3003,19 +3003,19 @@
         <v>6361</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2944</v>
+        <v>2280</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12969</v>
+        <v>13169</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02275747497758158</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01053305947733116</v>
+        <v>0.008157417747656203</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04639682697974521</v>
+        <v>0.04711162068453293</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -3024,19 +3024,19 @@
         <v>12653</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6420</v>
+        <v>6480</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22649</v>
+        <v>23012</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02972327472659582</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01508180253577991</v>
+        <v>0.01522285783921976</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05320471741105751</v>
+        <v>0.05405815566549491</v>
       </c>
     </row>
     <row r="18">
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6167</v>
+        <v>5268</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03312286405693531</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1967805342705222</v>
+        <v>0.1680966954480258</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -3387,19 +3387,19 @@
         <v>13594</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7964</v>
+        <v>7399</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21091</v>
+        <v>21690</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1654983690165603</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09696027882805835</v>
+        <v>0.0900802203315087</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2567683993371973</v>
+        <v>0.2640625436373396</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -3408,19 +3408,19 @@
         <v>14632</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8549</v>
+        <v>8466</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24104</v>
+        <v>23261</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.128941981065342</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07533431993137786</v>
+        <v>0.0746040712557324</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2124124316629661</v>
+        <v>0.2049859640426992</v>
       </c>
     </row>
     <row r="5">
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5162</v>
+        <v>4831</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03060156705352812</v>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1647270342760107</v>
+        <v>0.1541480372884036</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9434</v>
+        <v>9410</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03330549596296158</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1148509357289873</v>
+        <v>0.1145623404877086</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -3479,19 +3479,19 @@
         <v>3695</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9988</v>
+        <v>9718</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03255878776920691</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008438415311818059</v>
+        <v>0.00847739669263017</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0880138383449727</v>
+        <v>0.08564114337523106</v>
       </c>
     </row>
     <row r="6">
@@ -3508,19 +3508,19 @@
         <v>28282</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23155</v>
+        <v>23316</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30377</v>
+        <v>30393</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9024729300861698</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7388907567493738</v>
+        <v>0.7440240003741951</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.969329202851717</v>
+        <v>0.9698452502326251</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>50</v>
@@ -3529,19 +3529,19 @@
         <v>54417</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>45520</v>
+        <v>45453</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>62649</v>
+        <v>63427</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6624878481235065</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5541801523873029</v>
+        <v>0.5533586236871039</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7627046522979245</v>
+        <v>0.772182128189276</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>78</v>
@@ -3550,19 +3550,19 @@
         <v>82698</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>72742</v>
+        <v>73323</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>92181</v>
+        <v>91975</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7287613460898247</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6410265547057084</v>
+        <v>0.6461432918660321</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8123242212957922</v>
+        <v>0.8105122586622335</v>
       </c>
     </row>
     <row r="7">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4484</v>
+        <v>6297</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03380263880336678</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1430720991180973</v>
+        <v>0.2009259086976216</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -3600,19 +3600,19 @@
         <v>11393</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6114</v>
+        <v>5971</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18353</v>
+        <v>18578</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1387082868969716</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07443165680467734</v>
+        <v>0.07269403809050808</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2234358487809749</v>
+        <v>0.2261760405167319</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -3621,19 +3621,19 @@
         <v>12453</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6876</v>
+        <v>6240</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20089</v>
+        <v>20026</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1097378850756264</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06059695639678196</v>
+        <v>0.0549922880337232</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1770288970252148</v>
+        <v>0.1764722276488112</v>
       </c>
     </row>
     <row r="8">
@@ -3725,19 +3725,19 @@
         <v>16583</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10674</v>
+        <v>11291</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24707</v>
+        <v>24243</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1840108969813449</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1184366410230748</v>
+        <v>0.1252861706525127</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2741487724748125</v>
+        <v>0.2690031044856139</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -3746,19 +3746,19 @@
         <v>28876</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>19528</v>
+        <v>18800</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>43826</v>
+        <v>42470</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.155899602787908</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1054310078836569</v>
+        <v>0.1014985333247214</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2366130472166927</v>
+        <v>0.2292929485514825</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>40</v>
@@ -3767,19 +3767,19 @@
         <v>45459</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>32140</v>
+        <v>33945</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>58248</v>
+        <v>59804</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1651005274687412</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1167271162536122</v>
+        <v>0.1232823302440304</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2115470193994292</v>
+        <v>0.2171971147900832</v>
       </c>
     </row>
     <row r="10">
@@ -3796,19 +3796,19 @@
         <v>5644</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2406</v>
+        <v>2393</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11024</v>
+        <v>10588</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06262309502983847</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02669234837550263</v>
+        <v>0.0265500999530009</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1223208086015113</v>
+        <v>0.1174856602098139</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -3817,19 +3817,19 @@
         <v>18628</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11103</v>
+        <v>11022</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28955</v>
+        <v>28334</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1005734513136321</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05994391436912588</v>
+        <v>0.05950719497102632</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1563272215669777</v>
+        <v>0.1529728012131428</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -3838,19 +3838,19 @@
         <v>24272</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16080</v>
+        <v>15490</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35502</v>
+        <v>35726</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08815216727828198</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05839879012756109</v>
+        <v>0.05625887657972006</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1289389725663312</v>
+        <v>0.129752609569405</v>
       </c>
     </row>
     <row r="11">
@@ -3867,19 +3867,19 @@
         <v>67101</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>59089</v>
+        <v>58929</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>74065</v>
+        <v>74294</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7445602669749756</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6556669382911866</v>
+        <v>0.6538846072886277</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8218433361436672</v>
+        <v>0.8243828429291216</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>95</v>
@@ -3888,19 +3888,19 @@
         <v>126953</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>109114</v>
+        <v>111206</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>139528</v>
+        <v>141150</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6854075040894992</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5890999744850888</v>
+        <v>0.6003905181370788</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7533036409306541</v>
+        <v>0.7620560404298634</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>173</v>
@@ -3909,19 +3909,19 @@
         <v>194053</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>178226</v>
+        <v>176971</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>209395</v>
+        <v>209893</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7047684097890853</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6472855374416623</v>
+        <v>0.6427277857197594</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7604872921966279</v>
+        <v>0.7622953575684149</v>
       </c>
     </row>
     <row r="12">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3435</v>
+        <v>3955</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008805741013841019</v>
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0381170075007164</v>
+        <v>0.04388921541145688</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -3959,19 +3959,19 @@
         <v>10765</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4988</v>
+        <v>5038</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18952</v>
+        <v>20549</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05811944180896057</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0269285892460042</v>
+        <v>0.02719864055770988</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1023218373922373</v>
+        <v>0.1109436270435283</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -3980,19 +3980,19 @@
         <v>11559</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5731</v>
+        <v>5623</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>22997</v>
+        <v>21342</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04197889546389158</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02081263563076977</v>
+        <v>0.02042061413769097</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08351959445507513</v>
+        <v>0.07751098834822855</v>
       </c>
     </row>
     <row r="13">
@@ -4084,19 +4084,19 @@
         <v>17621</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11402</v>
+        <v>11091</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24830</v>
+        <v>25643</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1450799672884868</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09387336926364175</v>
+        <v>0.09131365325303466</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2044345413184652</v>
+        <v>0.2111288076292383</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>34</v>
@@ -4105,19 +4105,19 @@
         <v>42470</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>31019</v>
+        <v>30741</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>56917</v>
+        <v>57077</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1588485796188314</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1160181170356479</v>
+        <v>0.1149793726906935</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2128831490277394</v>
+        <v>0.2134821255813046</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>54</v>
@@ -4126,19 +4126,19 @@
         <v>60091</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>45684</v>
+        <v>46327</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>77741</v>
+        <v>76812</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1545475925262416</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1174926022305788</v>
+        <v>0.1191483386813608</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1999395332456371</v>
+        <v>0.1975509520018247</v>
       </c>
     </row>
     <row r="15">
@@ -4155,19 +4155,19 @@
         <v>6603</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3220</v>
+        <v>3198</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12386</v>
+        <v>12658</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05436115516527579</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02651446948443541</v>
+        <v>0.02633384366399056</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1019802284320771</v>
+        <v>0.1042148095780319</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>17</v>
@@ -4176,19 +4176,19 @@
         <v>21364</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>12588</v>
+        <v>13187</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>31938</v>
+        <v>33079</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07990708262964706</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04708220114725186</v>
+        <v>0.04932116937475595</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1194566087518736</v>
+        <v>0.1237214389409692</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>25</v>
@@ -4197,19 +4197,19 @@
         <v>27967</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>18215</v>
+        <v>18132</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>40778</v>
+        <v>40914</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07192714233818075</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0468456877928083</v>
+        <v>0.04663385445268416</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1048769040557538</v>
+        <v>0.1052250508586647</v>
       </c>
     </row>
     <row r="16">
@@ -4226,19 +4226,19 @@
         <v>95381</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>86858</v>
+        <v>86182</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>102508</v>
+        <v>102965</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7853036358561492</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7151310730211816</v>
+        <v>0.70955935838272</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8439817150646605</v>
+        <v>0.8477445928385264</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>145</v>
@@ -4247,19 +4247,19 @@
         <v>181370</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>163874</v>
+        <v>163000</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>196610</v>
+        <v>197302</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6783660226317373</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6129278855133725</v>
+        <v>0.6096574351411415</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7353673044149124</v>
+        <v>0.7379552010268792</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>251</v>
@@ -4268,19 +4268,19 @@
         <v>276751</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>258365</v>
+        <v>256240</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>296183</v>
+        <v>293586</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7117707901678894</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6644818684314048</v>
+        <v>0.6590190839937295</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7617455240037146</v>
+        <v>0.7550668184663638</v>
       </c>
     </row>
     <row r="17">
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6086</v>
+        <v>5968</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0152552416900882</v>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05011038817406768</v>
+        <v>0.04913859309142663</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -4318,19 +4318,19 @@
         <v>22159</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14059</v>
+        <v>14223</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34408</v>
+        <v>33820</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08287831511978425</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05258541567916753</v>
+        <v>0.0531969080621867</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1286937978937972</v>
+        <v>0.1264950229359623</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -4339,19 +4339,19 @@
         <v>24011</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15381</v>
+        <v>15546</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>35835</v>
+        <v>36057</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06175447496768832</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03955809089055019</v>
+        <v>0.03998281215759915</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09216449371671438</v>
+        <v>0.09273371805964825</v>
       </c>
     </row>
     <row r="18">
@@ -4681,19 +4681,19 @@
         <v>7525</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4197</v>
+        <v>3740</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12290</v>
+        <v>12299</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1366684451222061</v>
+        <v>0.1366684451222062</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07622325266492275</v>
+        <v>0.06791602133099289</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2232019001477602</v>
+        <v>0.2233609877578704</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -4702,19 +4702,19 @@
         <v>8306</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5095</v>
+        <v>5041</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13170</v>
+        <v>13447</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1031586788290287</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06327701674534326</v>
+        <v>0.06260494940299627</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1635699295587812</v>
+        <v>0.1670022926799787</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -4723,19 +4723,19 @@
         <v>15831</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10702</v>
+        <v>10985</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22425</v>
+        <v>22372</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1167677887539186</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07893163192101151</v>
+        <v>0.08102191549655935</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1654021641604302</v>
+        <v>0.1650094588586753</v>
       </c>
     </row>
     <row r="5">
@@ -4752,19 +4752,19 @@
         <v>4061</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1734</v>
+        <v>1799</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7798</v>
+        <v>7736</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07374771956966003</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03148676210832028</v>
+        <v>0.03267300841167031</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1416151439289532</v>
+        <v>0.1405048605639778</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -4773,19 +4773,19 @@
         <v>11997</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7959</v>
+        <v>7641</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17555</v>
+        <v>17599</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1489984046236696</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09884796798880507</v>
+        <v>0.09489236191516745</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2180196429623328</v>
+        <v>0.2185700574707147</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>28</v>
@@ -4794,19 +4794,19 @@
         <v>16058</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10938</v>
+        <v>11058</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22180</v>
+        <v>22266</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1184373187639991</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08067509611543948</v>
+        <v>0.0815591440104671</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1635936829214328</v>
+        <v>0.1642250378906668</v>
       </c>
     </row>
     <row r="6">
@@ -4823,19 +4823,19 @@
         <v>39600</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33866</v>
+        <v>33978</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>44421</v>
+        <v>44406</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.719190130173198</v>
+        <v>0.7191901301731981</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6150433400507784</v>
+        <v>0.6170901275055588</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8067476181455044</v>
+        <v>0.8064744020080247</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>104</v>
@@ -4844,19 +4844,19 @@
         <v>56229</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>49955</v>
+        <v>50167</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>61855</v>
+        <v>62074</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6983385331680825</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.620424032506967</v>
+        <v>0.6230522160142979</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7682125822964126</v>
+        <v>0.7709345868149576</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>162</v>
@@ -4865,19 +4865,19 @@
         <v>95829</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>87053</v>
+        <v>87713</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>103611</v>
+        <v>103596</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7068068606780208</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6420748990626916</v>
+        <v>0.6469499627251257</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7642065394107597</v>
+        <v>0.7640952737775021</v>
       </c>
     </row>
     <row r="7">
@@ -4894,19 +4894,19 @@
         <v>3876</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1574</v>
+        <v>1489</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8054</v>
+        <v>7726</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07039370513493576</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02858676066824395</v>
+        <v>0.02703607768041276</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1462628471006409</v>
+        <v>0.1403141075641494</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4915,19 +4915,19 @@
         <v>3986</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1731</v>
+        <v>1704</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7990</v>
+        <v>8090</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04950438337921942</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02149463036265473</v>
+        <v>0.02115974878225822</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09923332379408926</v>
+        <v>0.100468841786794</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -4936,19 +4936,19 @@
         <v>7862</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4257</v>
+        <v>4451</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13094</v>
+        <v>12952</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0579880318040614</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03139703938170137</v>
+        <v>0.03282687671707785</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0965742914484627</v>
+        <v>0.09553373566195264</v>
       </c>
     </row>
     <row r="8">
@@ -5040,19 +5040,19 @@
         <v>14038</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9081</v>
+        <v>9004</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20962</v>
+        <v>20009</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1230780376761056</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07961999045237325</v>
+        <v>0.07894453357406765</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1837829513707393</v>
+        <v>0.1754228545037236</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>74</v>
@@ -5061,19 +5061,19 @@
         <v>43147</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>33739</v>
+        <v>34041</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>52442</v>
+        <v>53538</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1559205190569705</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1219234367551515</v>
+        <v>0.1230142851738202</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1895095468640169</v>
+        <v>0.1934726935884927</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>97</v>
@@ -5082,19 +5082,19 @@
         <v>57185</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>46801</v>
+        <v>45779</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>69090</v>
+        <v>68922</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.1463346994751428</v>
+        <v>0.1463346994751429</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1197623506417286</v>
+        <v>0.1171470143483145</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1767990103394565</v>
+        <v>0.1763702729218959</v>
       </c>
     </row>
     <row r="10">
@@ -5111,19 +5111,19 @@
         <v>29021</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21737</v>
+        <v>21930</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36479</v>
+        <v>37601</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2544421241785643</v>
+        <v>0.2544421241785644</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1905730999796757</v>
+        <v>0.1922706090156435</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3198260750254314</v>
+        <v>0.3296596566848978</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>154</v>
@@ -5132,19 +5132,19 @@
         <v>76203</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>65970</v>
+        <v>65064</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87089</v>
+        <v>87507</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2753767060721909</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2383984273233666</v>
+        <v>0.2351230255499183</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3147167265067137</v>
+        <v>0.3162244773394324</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>198</v>
@@ -5153,19 +5153,19 @@
         <v>105224</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>92698</v>
+        <v>92811</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>120817</v>
+        <v>118861</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2692664757663218</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.237210952222071</v>
+        <v>0.2374996407226685</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3091681295120252</v>
+        <v>0.3041628452685417</v>
       </c>
     </row>
     <row r="11">
@@ -5182,19 +5182,19 @@
         <v>65791</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>57587</v>
+        <v>57429</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>74700</v>
+        <v>73736</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5768121704052039</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5048867707609455</v>
+        <v>0.503505392902067</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6549281015462942</v>
+        <v>0.6464761202473455</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>271</v>
@@ -5203,19 +5203,19 @@
         <v>145028</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>132743</v>
+        <v>132698</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>158143</v>
+        <v>158974</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5240893726380322</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4796957653691628</v>
+        <v>0.4795324795914257</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5714836230703609</v>
+        <v>0.5744890103258586</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>372</v>
@@ -5224,19 +5224,19 @@
         <v>210818</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>195836</v>
+        <v>195108</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>226848</v>
+        <v>225556</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.539477711338279</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5011384539734954</v>
+        <v>0.4992759825491472</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5804980538161704</v>
+        <v>0.5771918434669195</v>
       </c>
     </row>
     <row r="12">
@@ -5253,19 +5253,19 @@
         <v>5209</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2404</v>
+        <v>2272</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10828</v>
+        <v>10112</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04566766774012612</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02108113701744059</v>
+        <v>0.01991545407534486</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09492894398384902</v>
+        <v>0.08865504343704704</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -5274,19 +5274,19 @@
         <v>12346</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7800</v>
+        <v>7478</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18135</v>
+        <v>18085</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04461340223280637</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02818532234810631</v>
+        <v>0.02702357207057337</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06553434204845378</v>
+        <v>0.06535247103083247</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>31</v>
@@ -5295,19 +5295,19 @@
         <v>17554</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12287</v>
+        <v>12331</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>24799</v>
+        <v>24377</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0449211134202564</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03144213235281467</v>
+        <v>0.03155408652137407</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06346112150667496</v>
+        <v>0.06238121884814657</v>
       </c>
     </row>
     <row r="13">
@@ -5399,19 +5399,19 @@
         <v>21563</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14983</v>
+        <v>15821</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28775</v>
+        <v>30304</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1275028017020249</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08859086403309308</v>
+        <v>0.09354572472170133</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1701439127768272</v>
+        <v>0.1791881398021701</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>90</v>
@@ -5420,19 +5420,19 @@
         <v>51453</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41916</v>
+        <v>41691</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62310</v>
+        <v>62659</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1440286304438911</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1173314740693719</v>
+        <v>0.1167036422220915</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1744193295212894</v>
+        <v>0.1753969778019058</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>124</v>
@@ -5441,19 +5441,19 @@
         <v>73016</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>61041</v>
+        <v>59776</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>86075</v>
+        <v>86439</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.13871885921596</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1159673362710826</v>
+        <v>0.1135649712289881</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1635287314724315</v>
+        <v>0.1642187493004936</v>
       </c>
     </row>
     <row r="15">
@@ -5470,19 +5470,19 @@
         <v>33082</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>24872</v>
+        <v>24500</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>42225</v>
+        <v>41809</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1956116509665345</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1470675045997717</v>
+        <v>0.1448653172078644</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2496744169218368</v>
+        <v>0.2472122911599753</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>175</v>
@@ -5491,19 +5491,19 @@
         <v>88200</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>76414</v>
+        <v>76693</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>101067</v>
+        <v>100859</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.2468925463566983</v>
+        <v>0.2468925463566984</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.213901294982991</v>
+        <v>0.2146817951632129</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2829110483328878</v>
+        <v>0.2823268518319227</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>226</v>
@@ -5512,19 +5512,19 @@
         <v>121282</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>107161</v>
+        <v>107565</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>137263</v>
+        <v>136124</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.230415924993957</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2035872456509057</v>
+        <v>0.2043553971818522</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2607769332397857</v>
+        <v>0.258613714344162</v>
       </c>
     </row>
     <row r="16">
@@ -5541,19 +5541,19 @@
         <v>105391</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>94877</v>
+        <v>95064</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>114630</v>
+        <v>116674</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6231675778470883</v>
+        <v>0.6231675778470882</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.560998224385056</v>
+        <v>0.5621060991761219</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6777992498118087</v>
+        <v>0.6898852576794872</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>375</v>
@@ -5562,19 +5562,19 @@
         <v>201256</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>186412</v>
+        <v>188330</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>215811</v>
+        <v>215480</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5633630522328652</v>
+        <v>0.5633630522328654</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5218102215275368</v>
+        <v>0.527180039328443</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6041047738403126</v>
+        <v>0.6031786311864468</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>534</v>
@@ -5583,19 +5583,19 @@
         <v>306647</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>289236</v>
+        <v>288725</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>323897</v>
+        <v>324437</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5825783275674087</v>
+        <v>0.5825783275674086</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5494993115312721</v>
+        <v>0.5485301737413902</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6153493360881783</v>
+        <v>0.6163758261343355</v>
       </c>
     </row>
     <row r="17">
@@ -5612,19 +5612,19 @@
         <v>9085</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5064</v>
+        <v>4907</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14478</v>
+        <v>14673</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05371796948435244</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0299424149634934</v>
+        <v>0.02901691699966226</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08560705232974312</v>
+        <v>0.08675985811115709</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -5633,19 +5633,19 @@
         <v>16332</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11511</v>
+        <v>10986</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23461</v>
+        <v>23145</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.04571577096654536</v>
+        <v>0.04571577096654537</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0322207882020415</v>
+        <v>0.03075173194792116</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06567140122014251</v>
+        <v>0.06478859836722661</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>44</v>
@@ -5654,19 +5654,19 @@
         <v>25416</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>18392</v>
+        <v>19081</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34496</v>
+        <v>34181</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04828688822267438</v>
+        <v>0.04828688822267437</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03494082235305049</v>
+        <v>0.03624994510954131</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06553657826236772</v>
+        <v>0.06493848511532305</v>
       </c>
     </row>
     <row r="18">
